--- a/Business/R files/NOTIFICATION_DATA.xlsx
+++ b/Business/R files/NOTIFICATION_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohai\OneDrive\Bureaublad\Proftaak\proftaak22\Business\R files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2854602D-2D2E-4FFB-8339-A45AFED2BC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FFEA06-BBA6-467A-9D46-7F44E33A50B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="1935" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTIFICATION_DATA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="75">
   <si>
     <t>Notification_ID</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Send_Help</t>
   </si>
   <si>
-    <t>12/17/2021</t>
-  </si>
-  <si>
     <t>Accident_With_Animal</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Send_First_Responders</t>
   </si>
   <si>
-    <t>6/24/2021</t>
-  </si>
-  <si>
     <t>Utrecht_1</t>
   </si>
   <si>
@@ -88,15 +82,9 @@
     <t>No_Action_Required</t>
   </si>
   <si>
-    <t>5/30/2021</t>
-  </si>
-  <si>
     <t>DenHaag_4</t>
   </si>
   <si>
-    <t>3/14/2021</t>
-  </si>
-  <si>
     <t>Breda_1</t>
   </si>
   <si>
@@ -106,18 +94,12 @@
     <t>Deurne_2</t>
   </si>
   <si>
-    <t>5/25/2021</t>
-  </si>
-  <si>
     <t>Rotterdam_5</t>
   </si>
   <si>
     <t>Nijmegen_1</t>
   </si>
   <si>
-    <t>2/22/2021</t>
-  </si>
-  <si>
     <t>Accident_With_Object</t>
   </si>
   <si>
@@ -133,15 +115,9 @@
     <t>Arnhem_1</t>
   </si>
   <si>
-    <t>4/28/2021</t>
-  </si>
-  <si>
     <t>Hilversum_2</t>
   </si>
   <si>
-    <t>1/25/2021</t>
-  </si>
-  <si>
     <t>Alkmaar_2</t>
   </si>
   <si>
@@ -151,24 +127,15 @@
     <t>Zaandam_3</t>
   </si>
   <si>
-    <t>6/30/2021</t>
-  </si>
-  <si>
     <t>Gouda_2</t>
   </si>
   <si>
-    <t>4/26/2021</t>
-  </si>
-  <si>
     <t>Delft_1</t>
   </si>
   <si>
     <t>Zwolle_2</t>
   </si>
   <si>
-    <t>7/14/2021</t>
-  </si>
-  <si>
     <t>Bijlmer_1</t>
   </si>
   <si>
@@ -178,74 +145,116 @@
     <t>Amersfoort_4</t>
   </si>
   <si>
-    <t>7/26/2021</t>
-  </si>
-  <si>
     <t>Nijmegen_2</t>
   </si>
   <si>
-    <t>7/21/2021</t>
-  </si>
-  <si>
-    <t>9/20/2021</t>
-  </si>
-  <si>
-    <t>7/22/2021</t>
-  </si>
-  <si>
-    <t>11/17/2021</t>
-  </si>
-  <si>
-    <t>3/21/2021</t>
-  </si>
-  <si>
-    <t>8/19/2021</t>
-  </si>
-  <si>
-    <t>7/25/2021</t>
-  </si>
-  <si>
-    <t>5/23/2021</t>
-  </si>
-  <si>
-    <t>8/31/2021</t>
-  </si>
-  <si>
-    <t>10/31/2021</t>
-  </si>
-  <si>
-    <t>11/22/2021</t>
-  </si>
-  <si>
-    <t>9/16/2021</t>
-  </si>
-  <si>
     <t>Rotterdam_2</t>
   </si>
   <si>
-    <t>11/28/2021</t>
-  </si>
-  <si>
-    <t>4/20/2021</t>
-  </si>
-  <si>
-    <t>4/16/2021</t>
-  </si>
-  <si>
-    <t>10/19/2021</t>
-  </si>
-  <si>
-    <t>12/20/2021</t>
-  </si>
-  <si>
     <t>Denventer_1</t>
+  </si>
+  <si>
+    <t>12-17-2021</t>
+  </si>
+  <si>
+    <t>6-24-2021</t>
+  </si>
+  <si>
+    <t>5-30-2021</t>
+  </si>
+  <si>
+    <t>3-14-2021</t>
+  </si>
+  <si>
+    <t>5-25-2021</t>
+  </si>
+  <si>
+    <t>9-14-2021</t>
+  </si>
+  <si>
+    <t>2-22-2021</t>
+  </si>
+  <si>
+    <t>3-18-2021</t>
+  </si>
+  <si>
+    <t>4-28-2021</t>
+  </si>
+  <si>
+    <t>1-25-2021</t>
+  </si>
+  <si>
+    <t>6-30-2021</t>
+  </si>
+  <si>
+    <t>4-26-2021</t>
+  </si>
+  <si>
+    <t>7-14-2021</t>
+  </si>
+  <si>
+    <t>7-26-2021</t>
+  </si>
+  <si>
+    <t>7-21-2021</t>
+  </si>
+  <si>
+    <t>9-20-2021</t>
+  </si>
+  <si>
+    <t>11-17-2021</t>
+  </si>
+  <si>
+    <t>7-22-2021</t>
+  </si>
+  <si>
+    <t>3-21-2021</t>
+  </si>
+  <si>
+    <t>8-19-2021</t>
+  </si>
+  <si>
+    <t>7-25-2021</t>
+  </si>
+  <si>
+    <t>11-22-2021</t>
+  </si>
+  <si>
+    <t>5-23-2021</t>
+  </si>
+  <si>
+    <t>8-31-2021</t>
+  </si>
+  <si>
+    <t>10-31-2021</t>
+  </si>
+  <si>
+    <t>9-16-2021</t>
+  </si>
+  <si>
+    <t>11-28-2021</t>
+  </si>
+  <si>
+    <t>4-20-2021</t>
+  </si>
+  <si>
+    <t>4-16-2021</t>
+  </si>
+  <si>
+    <t>10-19-2021</t>
+  </si>
+  <si>
+    <t>12-20-2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +385,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -722,10 +737,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1080,14 +1097,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1132,14 +1162,14 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1148,15 +1178,15 @@
         <v>184000000000</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1164,14 +1194,14 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
-        <v>44229</v>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1180,30 +1210,30 @@
         <v>10114921986</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F4">
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1212,24 +1242,24 @@
         <v>199000000000</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1241,10 +1271,10 @@
         <v>128000000000</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1257,14 +1287,14 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1273,10 +1303,10 @@
         <v>53158124117</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1289,14 +1319,14 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
-        <v>44321</v>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -1305,24 +1335,24 @@
         <v>126000000000</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
-        <v>44410</v>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1334,10 +1364,10 @@
         <v>412223376</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1350,14 +1380,14 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>28</v>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -1366,24 +1396,24 @@
         <v>180000000000</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="2">
-        <v>44417</v>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1395,30 +1425,30 @@
         <v>239000000000</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>31</v>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -1427,24 +1457,24 @@
         <v>55199172242</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
-      <c r="E12" s="2">
-        <v>44350</v>
+      <c r="E12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1456,24 +1486,24 @@
         <v>2121615658</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13" s="2">
-        <v>44531</v>
+      <c r="E13" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1485,30 +1515,30 @@
         <v>991797936</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14" s="2">
-        <v>44540</v>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H14">
         <v>13</v>
@@ -1517,10 +1547,11 @@
         <v>162000000000</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1533,14 +1564,14 @@
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
-        <v>37</v>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -1549,30 +1580,30 @@
         <v>19912017418</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
-        <v>39</v>
+      <c r="E16" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -1581,7 +1612,7 @@
         <v>451710123</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1597,14 +1628,14 @@
       <c r="D17">
         <v>16</v>
       </c>
-      <c r="E17" t="s">
-        <v>28</v>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -1613,7 +1644,7 @@
         <v>14921165242</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1621,22 +1652,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
-        <v>43</v>
+      <c r="E18" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>17</v>
@@ -1645,7 +1676,7 @@
         <v>2191617226</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1653,22 +1684,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
-        <v>45</v>
+      <c r="E19" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19">
         <v>18</v>
@@ -1677,7 +1708,7 @@
         <v>127000000000</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1685,22 +1716,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
-      <c r="E20" s="2">
-        <v>44259</v>
+      <c r="E20" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H20">
         <v>19</v>
@@ -1709,7 +1740,7 @@
         <v>1461720213</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1717,22 +1748,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
-        <v>48</v>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="F21">
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <v>20</v>
@@ -1741,7 +1772,7 @@
         <v>173994041</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1749,16 +1780,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
-      <c r="E22" s="2">
-        <v>44478</v>
+      <c r="E22" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F22">
         <v>9</v>
@@ -1770,7 +1801,7 @@
         <v>22024215826</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1778,22 +1809,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
-      <c r="E23" s="2">
-        <v>44290</v>
+      <c r="E23" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H23">
         <v>22</v>
@@ -1802,7 +1833,7 @@
         <v>148319130</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1810,22 +1841,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
-      <c r="E24" t="s">
-        <v>52</v>
+      <c r="E24" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F24">
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H24">
         <v>23</v>
@@ -1834,7 +1865,7 @@
         <v>666321019</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1842,22 +1873,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
-      <c r="E25" t="s">
-        <v>54</v>
+      <c r="E25" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F25">
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25">
         <v>24</v>
@@ -1866,7 +1897,7 @@
         <v>51159164132</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1874,22 +1905,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
-      <c r="E26" t="s">
-        <v>55</v>
+      <c r="E26" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F26">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>25</v>
@@ -1898,7 +1929,7 @@
         <v>114000000000</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1906,16 +1937,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="2">
-        <v>44478</v>
+      <c r="E27" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F27">
         <v>9</v>
@@ -1927,7 +1958,7 @@
         <v>1786313241</v>
       </c>
       <c r="J27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1943,14 +1974,14 @@
       <c r="D28">
         <v>27</v>
       </c>
-      <c r="E28" t="s">
-        <v>56</v>
+      <c r="E28" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F28">
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H28">
         <v>27</v>
@@ -1959,7 +1990,7 @@
         <v>214585215</v>
       </c>
       <c r="J28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1975,14 +2006,14 @@
       <c r="D29">
         <v>28</v>
       </c>
-      <c r="E29" t="s">
-        <v>57</v>
+      <c r="E29" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F29">
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29">
         <v>28</v>
@@ -1991,7 +2022,7 @@
         <v>229000000000</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2007,14 +2038,14 @@
       <c r="D30">
         <v>29</v>
       </c>
-      <c r="E30" s="2">
-        <v>44230</v>
+      <c r="E30" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30">
         <v>29</v>
@@ -2023,7 +2054,7 @@
         <v>178717471</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2031,16 +2062,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31" t="s">
-        <v>58</v>
+      <c r="E31" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -2052,7 +2083,7 @@
         <v>2264893225</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2068,14 +2099,14 @@
       <c r="D32">
         <v>31</v>
       </c>
-      <c r="E32" s="2">
-        <v>44511</v>
+      <c r="E32" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="F32">
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H32">
         <v>31</v>
@@ -2084,7 +2115,7 @@
         <v>8123818151</v>
       </c>
       <c r="J32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2100,14 +2131,14 @@
       <c r="D33">
         <v>32</v>
       </c>
-      <c r="E33" t="s">
-        <v>59</v>
+      <c r="E33" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="F33">
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>32</v>
@@ -2116,7 +2147,7 @@
         <v>677575126</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2132,14 +2163,14 @@
       <c r="D34">
         <v>33</v>
       </c>
-      <c r="E34" t="s">
-        <v>60</v>
+      <c r="E34" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="F34">
         <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>33</v>
@@ -2148,7 +2179,7 @@
         <v>5841110130</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2156,16 +2187,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
-      <c r="E35" s="2">
-        <v>44296</v>
+      <c r="E35" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="F35">
         <v>10</v>
@@ -2177,7 +2208,7 @@
         <v>86146198155</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2193,14 +2224,14 @@
       <c r="D36">
         <v>35</v>
       </c>
-      <c r="E36" t="s">
-        <v>61</v>
+      <c r="E36" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="F36">
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>35</v>
@@ -2209,7 +2240,7 @@
         <v>14943189249</v>
       </c>
       <c r="J36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2217,22 +2248,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
-      <c r="E37" s="2">
-        <v>44420</v>
+      <c r="E37" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="F37">
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37">
         <v>36</v>
@@ -2241,7 +2272,7 @@
         <v>205000000000</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2257,14 +2288,14 @@
       <c r="D38">
         <v>37</v>
       </c>
-      <c r="E38" t="s">
-        <v>62</v>
+      <c r="E38" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="F38">
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H38">
         <v>37</v>
@@ -2273,7 +2304,7 @@
         <v>80421969</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2284,19 +2315,19 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
-      <c r="E39" t="s">
-        <v>63</v>
+      <c r="E39" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="F39">
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>38</v>
@@ -2305,7 +2336,7 @@
         <v>63622051</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2321,14 +2352,14 @@
       <c r="D40">
         <v>39</v>
       </c>
-      <c r="E40" t="s">
-        <v>64</v>
+      <c r="E40" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="F40">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H40">
         <v>39</v>
@@ -2337,7 +2368,7 @@
         <v>24213329</v>
       </c>
       <c r="J40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2345,22 +2376,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
-      <c r="E41" t="s">
-        <v>65</v>
+      <c r="E41" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F41">
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H41">
         <v>40</v>
@@ -2369,7 +2400,7 @@
         <v>1618825181</v>
       </c>
       <c r="J41" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2385,14 +2416,14 @@
       <c r="D42">
         <v>41</v>
       </c>
-      <c r="E42" t="s">
-        <v>67</v>
+      <c r="E42" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="F42">
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>41</v>
@@ -2401,7 +2432,7 @@
         <v>2289318674</v>
       </c>
       <c r="J42" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2409,22 +2440,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43">
         <v>42</v>
       </c>
-      <c r="E43" t="s">
-        <v>68</v>
+      <c r="E43" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F43">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43">
         <v>42</v>
@@ -2433,7 +2464,7 @@
         <v>144000000000</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2449,14 +2480,14 @@
       <c r="D44">
         <v>43</v>
       </c>
-      <c r="E44" s="2">
-        <v>44418</v>
+      <c r="E44" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F44">
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H44">
         <v>43</v>
@@ -2465,7 +2496,7 @@
         <v>248000000000</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2473,22 +2504,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>44</v>
       </c>
-      <c r="E45" s="2">
-        <v>44204</v>
+      <c r="E45" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="F45">
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H45">
         <v>44</v>
@@ -2497,7 +2528,7 @@
         <v>127349728</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2513,14 +2544,14 @@
       <c r="D46">
         <v>45</v>
       </c>
-      <c r="E46" t="s">
-        <v>69</v>
+      <c r="E46" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="F46">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H46">
         <v>45</v>
@@ -2529,7 +2560,7 @@
         <v>2234312214</v>
       </c>
       <c r="J46" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2537,22 +2568,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47">
         <v>46</v>
       </c>
-      <c r="E47" s="2">
-        <v>44504</v>
+      <c r="E47" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F47">
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47">
         <v>46</v>
@@ -2561,7 +2592,7 @@
         <v>24617957238</v>
       </c>
       <c r="J47" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2577,14 +2608,14 @@
       <c r="D48">
         <v>47</v>
       </c>
-      <c r="E48" s="2">
-        <v>44266</v>
+      <c r="E48" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F48">
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>47</v>
@@ -2593,7 +2624,7 @@
         <v>21222396125</v>
       </c>
       <c r="J48" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2609,14 +2640,14 @@
       <c r="D49">
         <v>48</v>
       </c>
-      <c r="E49" t="s">
-        <v>70</v>
+      <c r="E49" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F49">
         <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>48</v>
@@ -2625,7 +2656,7 @@
         <v>2174495178</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2633,16 +2664,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D50">
         <v>49</v>
       </c>
-      <c r="E50" s="2">
-        <v>44297</v>
+      <c r="E50" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F50">
         <v>11</v>
@@ -2654,7 +2685,7 @@
         <v>153000000000</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2670,14 +2701,14 @@
       <c r="D51">
         <v>50</v>
       </c>
-      <c r="E51" t="s">
-        <v>71</v>
+      <c r="E51" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F51">
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>50</v>
@@ -2686,10 +2717,12 @@
         <v>10444597</v>
       </c>
       <c r="J51" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>